--- a/results/mp/deberta/corona/confidence/210/stop-words-topk-0.35/homogenity_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-topk-0.35/homogenity_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="1039">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="1039">
   <si>
     <t>anchor score</t>
   </si>
@@ -475,469 +475,469 @@
     <t>corona</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>tips</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>sales</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>latest</t>
+  </si>
+  <si>
+    <t>working</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>dona</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>companies</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>outside</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>mask</t>
+  </si>
+  <si>
+    <t>retailers</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>ho</t>
+  </si>
+  <si>
+    <t>meals</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>pp</t>
+  </si>
+  <si>
+    <t>due</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>guidance</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>charities</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>insights</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>donations</t>
+  </si>
+  <si>
+    <t>feels</t>
+  </si>
+  <si>
+    <t>certainly</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>putting</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>personal</t>
+  </si>
+  <si>
+    <t>helpful</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>options</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>customers</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>tips</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>sales</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>latest</t>
-  </si>
-  <si>
-    <t>working</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>experience</t>
-  </si>
-  <si>
-    <t>dona</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>companies</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>outside</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>mask</t>
-  </si>
-  <si>
-    <t>retailers</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>ho</t>
-  </si>
-  <si>
-    <t>meals</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>pp</t>
-  </si>
-  <si>
-    <t>due</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>guidance</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>lot</t>
-  </si>
-  <si>
-    <t>charities</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>insights</t>
-  </si>
-  <si>
-    <t>holiday</t>
-  </si>
-  <si>
-    <t>donations</t>
-  </si>
-  <si>
-    <t>feels</t>
-  </si>
-  <si>
-    <t>certainly</t>
-  </si>
-  <si>
-    <t>buying</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>gas</t>
-  </si>
-  <si>
-    <t>putting</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>self</t>
-  </si>
-  <si>
-    <t>personal</t>
-  </si>
-  <si>
-    <t>helpful</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>options</t>
-  </si>
-  <si>
-    <t>negative</t>
   </si>
   <si>
     <t>best</t>
@@ -3496,10 +3496,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="J1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3557,7 +3557,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.02813721107535217</v>
+        <v>0.02855652982702661</v>
       </c>
       <c r="C3">
         <v>152</v>
@@ -3578,16 +3578,16 @@
         <v>140</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K3">
-        <v>0.004219956043692067</v>
+        <v>0.007484273231067352</v>
       </c>
       <c r="L3">
-        <v>55</v>
+        <v>173</v>
       </c>
       <c r="M3">
-        <v>55</v>
+        <v>173</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -3599,7 +3599,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3607,7 +3607,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.01020643918975019</v>
+        <v>0.01035854208753298</v>
       </c>
       <c r="C4">
         <v>20</v>
@@ -3628,16 +3628,16 @@
         <v>55</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K4">
-        <v>0.004219956043692067</v>
+        <v>0.007015334385376297</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>152</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>152</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -3649,7 +3649,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>160</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3657,7 +3657,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.009845933051318654</v>
+        <v>0.009992663455589804</v>
       </c>
       <c r="C5">
         <v>71</v>
@@ -3678,16 +3678,16 @@
         <v>444</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K5">
-        <v>0.004023570215921224</v>
+        <v>0.004219956043692067</v>
       </c>
       <c r="L5">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="M5">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -3699,7 +3699,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3707,7 +3707,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.009682678391884223</v>
+        <v>0.009826975870595845</v>
       </c>
       <c r="C6">
         <v>18</v>
@@ -3728,28 +3728,28 @@
         <v>11</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>158</v>
+        <v>309</v>
       </c>
       <c r="K6">
-        <v>0.003827491721168434</v>
+        <v>0.004219956043692067</v>
       </c>
       <c r="L6">
-        <v>161</v>
+        <v>55</v>
       </c>
       <c r="M6">
-        <v>163</v>
+        <v>55</v>
       </c>
       <c r="N6">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>220</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3757,7 +3757,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.008539319683314823</v>
+        <v>0.008666578097809685</v>
       </c>
       <c r="C7">
         <v>14</v>
@@ -3778,28 +3778,28 @@
         <v>22</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>88</v>
+        <v>310</v>
       </c>
       <c r="K7">
-        <v>0.003518248302774135</v>
+        <v>0.004023570215921224</v>
       </c>
       <c r="L7">
-        <v>363</v>
+        <v>50</v>
       </c>
       <c r="M7">
-        <v>380</v>
+        <v>50</v>
       </c>
       <c r="N7">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>2727</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3807,7 +3807,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.007569297887765925</v>
+        <v>0.007682100415807887</v>
       </c>
       <c r="C8">
         <v>11</v>
@@ -3828,16 +3828,16 @@
         <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="K8">
-        <v>0.003306995967195796</v>
+        <v>0.003827491721168434</v>
       </c>
       <c r="L8">
-        <v>105</v>
+        <v>161</v>
       </c>
       <c r="M8">
-        <v>106</v>
+        <v>163</v>
       </c>
       <c r="N8">
         <v>0.99</v>
@@ -3849,7 +3849,7 @@
         <v>1</v>
       </c>
       <c r="Q8">
-        <v>22</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3857,7 +3857,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.006846687550949791</v>
+        <v>0.006948721276654899</v>
       </c>
       <c r="C9">
         <v>9</v>
@@ -3878,28 +3878,28 @@
         <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>311</v>
+        <v>88</v>
       </c>
       <c r="K9">
-        <v>0.003116644087711816</v>
+        <v>0.003518248302774135</v>
       </c>
       <c r="L9">
-        <v>30</v>
+        <v>363</v>
       </c>
       <c r="M9">
-        <v>30</v>
+        <v>380</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9">
-        <v>17</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3907,7 +3907,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.006846687550949791</v>
+        <v>0.006948721276654899</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -3928,28 +3928,28 @@
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>312</v>
+        <v>164</v>
       </c>
       <c r="K10">
-        <v>0.003010964243921054</v>
+        <v>0.003306995967195796</v>
       </c>
       <c r="L10">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="M10">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3957,7 +3957,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.006455118927922817</v>
+        <v>0.006551317247063897</v>
       </c>
       <c r="C11">
         <v>8</v>
@@ -3978,28 +3978,28 @@
         <v>23</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>156</v>
+        <v>311</v>
       </c>
       <c r="K11">
-        <v>0.002930817436437555</v>
+        <v>0.003116644087711816</v>
       </c>
       <c r="L11">
-        <v>135</v>
+        <v>30</v>
       </c>
       <c r="M11">
-        <v>138</v>
+        <v>30</v>
       </c>
       <c r="N11">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>756</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4007,7 +4007,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.006455118927922817</v>
+        <v>0.006551317247063897</v>
       </c>
       <c r="C12">
         <v>8</v>
@@ -4028,16 +4028,16 @@
         <v>26</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K12">
-        <v>0.002901437744786737</v>
+        <v>0.003010964243921054</v>
       </c>
       <c r="L12">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M12">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -4049,7 +4049,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>204</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4057,7 +4057,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.006038210854791673</v>
+        <v>0.006128196142644039</v>
       </c>
       <c r="C13">
         <v>7</v>
@@ -4078,28 +4078,28 @@
         <v>17</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>314</v>
+        <v>154</v>
       </c>
       <c r="K13">
-        <v>0.002845093784258119</v>
+        <v>0.002930817436437555</v>
       </c>
       <c r="L13">
-        <v>25</v>
+        <v>135</v>
       </c>
       <c r="M13">
-        <v>25</v>
+        <v>138</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <v>242</v>
+        <v>756</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4107,7 +4107,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.006038210854791673</v>
+        <v>0.006128196142644039</v>
       </c>
       <c r="C14">
         <v>7</v>
@@ -4128,28 +4128,28 @@
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>89</v>
+        <v>313</v>
       </c>
       <c r="K14">
-        <v>0.002836872862460293</v>
+        <v>0.002901437744786737</v>
       </c>
       <c r="L14">
-        <v>266</v>
+        <v>26</v>
       </c>
       <c r="M14">
-        <v>280</v>
+        <v>26</v>
       </c>
       <c r="N14">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>1863</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -4157,7 +4157,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.006038210854791673</v>
+        <v>0.006128196142644039</v>
       </c>
       <c r="C15">
         <v>7</v>
@@ -4178,28 +4178,28 @@
         <v>19</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>170</v>
+        <v>314</v>
       </c>
       <c r="K15">
-        <v>0.002745107026830629</v>
+        <v>0.002845093784258119</v>
       </c>
       <c r="L15">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="M15">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="N15">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>59</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -4207,7 +4207,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.006038210854791673</v>
+        <v>0.006128196142644039</v>
       </c>
       <c r="C16">
         <v>7</v>
@@ -4228,28 +4228,28 @@
         <v>3</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>315</v>
+        <v>89</v>
       </c>
       <c r="K16">
-        <v>0.002728918091465232</v>
+        <v>0.002836872862460293</v>
       </c>
       <c r="L16">
-        <v>23</v>
+        <v>266</v>
       </c>
       <c r="M16">
-        <v>23</v>
+        <v>280</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16">
-        <v>41</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -4257,7 +4257,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.005590296976030929</v>
+        <v>0.005673607164208468</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -4278,28 +4278,28 @@
         <v>19</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>316</v>
+        <v>168</v>
       </c>
       <c r="K17">
-        <v>0.002668934544771992</v>
+        <v>0.002745107026830629</v>
       </c>
       <c r="L17">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="M17">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17">
-        <v>4</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -4307,7 +4307,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.005590296976030929</v>
+        <v>0.005673607164208468</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -4328,16 +4328,16 @@
         <v>13</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K18">
-        <v>0.002668934544771992</v>
+        <v>0.002728918091465232</v>
       </c>
       <c r="L18">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M18">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -4349,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>121</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -4357,7 +4357,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.005590296976030929</v>
+        <v>0.005673607164208468</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -4378,16 +4378,16 @@
         <v>143</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K19">
-        <v>0.002607571525122238</v>
+        <v>0.002668934544771992</v>
       </c>
       <c r="L19">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M19">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -4399,7 +4399,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -4407,7 +4407,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.005590296976030929</v>
+        <v>0.005673607164208468</v>
       </c>
       <c r="C20">
         <v>6</v>
@@ -4428,28 +4428,28 @@
         <v>6</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>155</v>
+        <v>317</v>
       </c>
       <c r="K20">
-        <v>0.002596770349646042</v>
+        <v>0.002668934544771992</v>
       </c>
       <c r="L20">
-        <v>133</v>
+        <v>22</v>
       </c>
       <c r="M20">
-        <v>137</v>
+        <v>22</v>
       </c>
       <c r="N20">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>158</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -4457,7 +4457,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.005590296976030929</v>
+        <v>0.005673607164208468</v>
       </c>
       <c r="C21">
         <v>6</v>
@@ -4478,16 +4478,16 @@
         <v>4</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K21">
-        <v>0.00254472924158531</v>
+        <v>0.002607571525122238</v>
       </c>
       <c r="L21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -4499,7 +4499,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>71</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -4507,7 +4507,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.005103219594875095</v>
+        <v>0.005179271043766492</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -4528,28 +4528,28 @@
         <v>9</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>320</v>
+        <v>153</v>
       </c>
       <c r="K22">
-        <v>0.002414142129552734</v>
+        <v>0.002596770349646042</v>
       </c>
       <c r="L22">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="M22">
-        <v>18</v>
+        <v>137</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>32</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -4557,7 +4557,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.005103219594875095</v>
+        <v>0.005179271043766492</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -4578,16 +4578,16 @@
         <v>10</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K23">
-        <v>0.002414142129552734</v>
+        <v>0.00254472924158531</v>
       </c>
       <c r="L23">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M23">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -4599,7 +4599,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -4607,7 +4607,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.005103219594875095</v>
+        <v>0.005179271043766492</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -4628,28 +4628,28 @@
         <v>14</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>157</v>
+        <v>320</v>
       </c>
       <c r="K24">
-        <v>0.002327788581007322</v>
+        <v>0.002414142129552734</v>
       </c>
       <c r="L24">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="M24">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="N24">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -4657,7 +4657,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.005103219594875095</v>
+        <v>0.005179271043766492</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -4678,28 +4678,28 @@
         <v>3</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>152</v>
+        <v>321</v>
       </c>
       <c r="K25">
-        <v>0.002326784035775236</v>
+        <v>0.002414142129552734</v>
       </c>
       <c r="L25">
-        <v>203</v>
+        <v>18</v>
       </c>
       <c r="M25">
-        <v>215</v>
+        <v>18</v>
       </c>
       <c r="N25">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>2986</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -4707,7 +4707,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.005103219594875095</v>
+        <v>0.005179271043766492</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -4728,28 +4728,28 @@
         <v>17</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>322</v>
+        <v>155</v>
       </c>
       <c r="K26">
-        <v>0.002276075027406495</v>
+        <v>0.002327788581007322</v>
       </c>
       <c r="L26">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="M26">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
-        <v>149</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -4757,7 +4757,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.005103219594875095</v>
+        <v>0.005179271043766492</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -4778,28 +4778,28 @@
         <v>8</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>323</v>
+        <v>152</v>
       </c>
       <c r="K27">
-        <v>0.002276075027406495</v>
+        <v>0.002326784035775236</v>
       </c>
       <c r="L27">
-        <v>16</v>
+        <v>203</v>
       </c>
       <c r="M27">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27">
-        <v>97</v>
+        <v>2986</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -4807,7 +4807,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.005103219594875095</v>
+        <v>0.005179271043766492</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -4828,7 +4828,7 @@
         <v>14</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K28">
         <v>0.002276075027406495</v>
@@ -4849,7 +4849,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>31</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -4857,7 +4857,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.005103219594875095</v>
+        <v>0.005179271043766492</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -4878,28 +4878,28 @@
         <v>6</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>160</v>
+        <v>323</v>
       </c>
       <c r="K29">
-        <v>0.002274247087034797</v>
+        <v>0.002276075027406495</v>
       </c>
       <c r="L29">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="M29">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="N29">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>314</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -4907,7 +4907,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.005103219594875095</v>
+        <v>0.005179271043766492</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -4928,28 +4928,28 @@
         <v>5</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>161</v>
+        <v>324</v>
       </c>
       <c r="K30">
-        <v>0.002233595430835518</v>
+        <v>0.002276075027406495</v>
       </c>
       <c r="L30">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="M30">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="N30">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -4957,7 +4957,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.005103219594875095</v>
+        <v>0.005179271043766492</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -4978,28 +4978,28 @@
         <v>2</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>325</v>
+        <v>158</v>
       </c>
       <c r="K31">
-        <v>0.002203800168965986</v>
+        <v>0.002274247087034797</v>
       </c>
       <c r="L31">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="M31">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
-        <v>100</v>
+        <v>314</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -5007,7 +5007,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.005103219594875095</v>
+        <v>0.005179271043766492</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -5028,28 +5028,28 @@
         <v>18</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>326</v>
+        <v>159</v>
       </c>
       <c r="K32">
-        <v>0.002203800168965986</v>
+        <v>0.002233595430835518</v>
       </c>
       <c r="L32">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="M32">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
-        <v>345</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -5057,7 +5057,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.00456445836729986</v>
+        <v>0.004632480851103266</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -5078,28 +5078,28 @@
         <v>3</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>159</v>
+        <v>325</v>
       </c>
       <c r="K33">
-        <v>0.002161575803285082</v>
+        <v>0.002203800168965986</v>
       </c>
       <c r="L33">
-        <v>109</v>
+        <v>15</v>
       </c>
       <c r="M33">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c r="N33">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>788</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -5107,7 +5107,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.00456445836729986</v>
+        <v>0.004632480851103266</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -5128,28 +5128,28 @@
         <v>47</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>154</v>
+        <v>326</v>
       </c>
       <c r="K34">
-        <v>0.002144474312907964</v>
+        <v>0.002203800168965986</v>
       </c>
       <c r="L34">
-        <v>152</v>
+        <v>15</v>
       </c>
       <c r="M34">
-        <v>160</v>
+        <v>15</v>
       </c>
       <c r="N34">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>79</v>
+        <v>345</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -5157,7 +5157,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.00456445836729986</v>
+        <v>0.004632480851103266</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -5178,28 +5178,28 @@
         <v>2</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>327</v>
+        <v>157</v>
       </c>
       <c r="K35">
-        <v>0.002129073234786803</v>
+        <v>0.002161575803285082</v>
       </c>
       <c r="L35">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="M35">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
-        <v>211</v>
+        <v>788</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -5207,7 +5207,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.00456445836729986</v>
+        <v>0.004632480851103266</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -5228,7 +5228,7 @@
         <v>27</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K36">
         <v>0.002129073234786803</v>
@@ -5249,7 +5249,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>267</v>
+        <v>211</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -5257,7 +5257,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.00456445836729986</v>
+        <v>0.004632480851103266</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -5278,7 +5278,7 @@
         <v>34</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K37">
         <v>0.002129073234786803</v>
@@ -5299,7 +5299,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>286</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -5307,7 +5307,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.00456445836729986</v>
+        <v>0.004632480851103266</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -5328,7 +5328,7 @@
         <v>22</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K38">
         <v>0.002129073234786803</v>
@@ -5349,7 +5349,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>45</v>
+        <v>286</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -5357,7 +5357,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.00456445836729986</v>
+        <v>0.004632480851103266</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -5378,28 +5378,28 @@
         <v>73</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>162</v>
+        <v>330</v>
       </c>
       <c r="K39">
-        <v>0.002089297529747555</v>
+        <v>0.002129073234786803</v>
       </c>
       <c r="L39">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="M39">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="N39">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>17</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -5407,7 +5407,7 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.003952936900598121</v>
+        <v>0.004011846099600386</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -5428,28 +5428,28 @@
         <v>16</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="K40">
-        <v>0.002088987216114497</v>
+        <v>0.002089297529747555</v>
       </c>
       <c r="L40">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="M40">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="N40">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="O40">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>427</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -5457,7 +5457,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.003952936900598121</v>
+        <v>0.004011846099600386</v>
       </c>
       <c r="C41">
         <v>3</v>
@@ -5478,28 +5478,28 @@
         <v>16</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>331</v>
+        <v>172</v>
       </c>
       <c r="K41">
-        <v>0.002051626304529305</v>
+        <v>0.002088987216114497</v>
       </c>
       <c r="L41">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M41">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="N41">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41">
-        <v>293</v>
+        <v>427</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -5507,7 +5507,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.003952936900598121</v>
+        <v>0.004011846099600386</v>
       </c>
       <c r="C42">
         <v>3</v>
@@ -5528,7 +5528,7 @@
         <v>4</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K42">
         <v>0.002051626304529305</v>
@@ -5549,7 +5549,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>159</v>
+        <v>293</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -5557,7 +5557,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.003952936900598121</v>
+        <v>0.004011846099600386</v>
       </c>
       <c r="C43">
         <v>3</v>
@@ -5578,7 +5578,7 @@
         <v>8</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K43">
         <v>0.002051626304529305</v>
@@ -5599,7 +5599,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>14</v>
+        <v>159</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -5607,7 +5607,7 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.003952936900598121</v>
+        <v>0.004011846099600386</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -5628,7 +5628,7 @@
         <v>27</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K44">
         <v>0.002051626304529305</v>
@@ -5649,7 +5649,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -5657,7 +5657,7 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.003952936900598121</v>
+        <v>0.004011846099600386</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -5678,7 +5678,7 @@
         <v>23</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K45">
         <v>0.002051626304529305</v>
@@ -5699,7 +5699,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -5707,7 +5707,7 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.003952936900598121</v>
+        <v>0.004011846099600386</v>
       </c>
       <c r="C46">
         <v>3</v>
@@ -5728,16 +5728,16 @@
         <v>27</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K46">
-        <v>0.001971138794653387</v>
+        <v>0.002051626304529305</v>
       </c>
       <c r="L46">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M46">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -5749,7 +5749,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -5757,7 +5757,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.003952936900598121</v>
+        <v>0.004011846099600386</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -5778,16 +5778,16 @@
         <v>13</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K47">
-        <v>0.001887221715151307</v>
+        <v>0.001971138794653387</v>
       </c>
       <c r="L47">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M47">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -5799,7 +5799,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -5807,7 +5807,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.003952936900598121</v>
+        <v>0.004011846099600386</v>
       </c>
       <c r="C48">
         <v>3</v>
@@ -5828,7 +5828,7 @@
         <v>6</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K48">
         <v>0.001887221715151307</v>
@@ -5849,7 +5849,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>113</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -5857,7 +5857,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.003952936900598121</v>
+        <v>0.004011846099600386</v>
       </c>
       <c r="C49">
         <v>3</v>
@@ -5878,7 +5878,7 @@
         <v>9</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K49">
         <v>0.001887221715151307</v>
@@ -5899,7 +5899,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>7</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -5907,7 +5907,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.003952936900598121</v>
+        <v>0.004011846099600386</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -5928,7 +5928,7 @@
         <v>5</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K50">
         <v>0.001887221715151307</v>
@@ -5949,7 +5949,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -5957,7 +5957,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.003952936900598121</v>
+        <v>0.004011846099600386</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -5978,7 +5978,7 @@
         <v>9</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K51">
         <v>0.001887221715151307</v>
@@ -5999,7 +5999,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>68</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -6007,7 +6007,7 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.003952936900598121</v>
+        <v>0.004011846099600386</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -6028,7 +6028,7 @@
         <v>3</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K52">
         <v>0.001887221715151307</v>
@@ -6049,7 +6049,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>101</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -6057,7 +6057,7 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.003952936900598121</v>
+        <v>0.004011846099600386</v>
       </c>
       <c r="C53">
         <v>3</v>
@@ -6078,7 +6078,7 @@
         <v>77</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K53">
         <v>0.001887221715151307</v>
@@ -6099,7 +6099,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>49</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -6107,7 +6107,7 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.003952936900598121</v>
+        <v>0.004011846099600386</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -6128,7 +6128,7 @@
         <v>3</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K54">
         <v>0.001887221715151307</v>
@@ -6149,7 +6149,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>155</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -6157,7 +6157,7 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.003952936900598121</v>
+        <v>0.004011846099600386</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -6178,7 +6178,7 @@
         <v>42</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K55">
         <v>0.001887221715151307</v>
@@ -6199,7 +6199,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>117</v>
+        <v>155</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -6207,7 +6207,7 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.003952936900598121</v>
+        <v>0.004011846099600386</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -6228,7 +6228,7 @@
         <v>17</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K56">
         <v>0.001887221715151307</v>
@@ -6249,7 +6249,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>34</v>
+        <v>117</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -6257,7 +6257,7 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.003952936900598121</v>
+        <v>0.004011846099600386</v>
       </c>
       <c r="C57">
         <v>3</v>
@@ -6278,28 +6278,28 @@
         <v>28</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>167</v>
+        <v>346</v>
       </c>
       <c r="K57">
-        <v>0.001873434947496435</v>
+        <v>0.001887221715151307</v>
       </c>
       <c r="L57">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="M57">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="N57">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>346</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -6307,7 +6307,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.003952936900598121</v>
+        <v>0.004011846099600386</v>
       </c>
       <c r="C58">
         <v>3</v>
@@ -6328,28 +6328,28 @@
         <v>36</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="K58">
-        <v>0.001862029286811742</v>
+        <v>0.001873434947496435</v>
       </c>
       <c r="L58">
-        <v>173</v>
+        <v>68</v>
       </c>
       <c r="M58">
-        <v>186</v>
+        <v>70</v>
       </c>
       <c r="N58">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="O58">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>154</v>
+        <v>346</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -6357,7 +6357,7 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.003227559463961408</v>
+        <v>0.003275658623531949</v>
       </c>
       <c r="C59">
         <v>2</v>
@@ -6407,7 +6407,7 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.003227559463961408</v>
+        <v>0.003275658623531949</v>
       </c>
       <c r="C60">
         <v>2</v>
@@ -6457,7 +6457,7 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.003227559463961408</v>
+        <v>0.003275658623531949</v>
       </c>
       <c r="C61">
         <v>2</v>
@@ -6507,7 +6507,7 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.003227559463961408</v>
+        <v>0.003275658623531949</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -6557,7 +6557,7 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.003227559463961408</v>
+        <v>0.003275658623531949</v>
       </c>
       <c r="C63">
         <v>2</v>
@@ -6607,7 +6607,7 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.003227559463961408</v>
+        <v>0.003275658623531949</v>
       </c>
       <c r="C64">
         <v>2</v>
@@ -6657,7 +6657,7 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.003227559463961408</v>
+        <v>0.003275658623531949</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -6707,7 +6707,7 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.003227559463961408</v>
+        <v>0.003275658623531949</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -6757,7 +6757,7 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.003227559463961408</v>
+        <v>0.003275658623531949</v>
       </c>
       <c r="C67">
         <v>2</v>
@@ -6778,7 +6778,7 @@
         <v>187</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K67">
         <v>0.001748282604338287</v>
@@ -6807,7 +6807,7 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.003227559463961408</v>
+        <v>0.003275658623531949</v>
       </c>
       <c r="C68">
         <v>2</v>
@@ -6828,7 +6828,7 @@
         <v>5</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K68">
         <v>0.001724635954869437</v>
@@ -6857,7 +6857,7 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.003227559463961408</v>
+        <v>0.003275658623531949</v>
       </c>
       <c r="C69">
         <v>2</v>
@@ -6907,7 +6907,7 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.003227559463961408</v>
+        <v>0.003275658623531949</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -6957,7 +6957,7 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.003227559463961408</v>
+        <v>0.003275658623531949</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -7007,7 +7007,7 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.003227559463961408</v>
+        <v>0.003275658623531949</v>
       </c>
       <c r="C72">
         <v>2</v>
@@ -7057,7 +7057,7 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.003227559463961408</v>
+        <v>0.003275658623531949</v>
       </c>
       <c r="C73">
         <v>2</v>
@@ -7107,7 +7107,7 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.003227559463961408</v>
+        <v>0.003275658623531949</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -7157,7 +7157,7 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.003227559463961408</v>
+        <v>0.003275658623531949</v>
       </c>
       <c r="C75">
         <v>2</v>
@@ -7207,7 +7207,7 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.003227559463961408</v>
+        <v>0.003275658623531949</v>
       </c>
       <c r="C76">
         <v>2</v>
@@ -7257,7 +7257,7 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.003227559463961408</v>
+        <v>0.003275658623531949</v>
       </c>
       <c r="C77">
         <v>2</v>
@@ -7307,7 +7307,7 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.003227559463961408</v>
+        <v>0.003275658623531949</v>
       </c>
       <c r="C78">
         <v>2</v>
@@ -7357,7 +7357,7 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.003227559463961408</v>
+        <v>0.003275658623531949</v>
       </c>
       <c r="C79">
         <v>2</v>
@@ -7378,7 +7378,7 @@
         <v>250</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K79">
         <v>0.001595151190541395</v>
@@ -7407,7 +7407,7 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.003227559463961408</v>
+        <v>0.003275658623531949</v>
       </c>
       <c r="C80">
         <v>2</v>
@@ -7428,7 +7428,7 @@
         <v>5</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K80">
         <v>0.001577587033174383</v>
@@ -7457,7 +7457,7 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.003227559463961408</v>
+        <v>0.003275658623531949</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -7478,7 +7478,7 @@
         <v>35</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K81">
         <v>0.001529231485281802</v>
@@ -7507,7 +7507,7 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.003227559463961408</v>
+        <v>0.003275658623531949</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -7557,7 +7557,7 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.003053727689529418</v>
+        <v>0.003099236296594205</v>
       </c>
       <c r="C83">
         <v>17</v>
@@ -7607,7 +7607,7 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.002610331982000847</v>
+        <v>0.002649232822074059</v>
       </c>
       <c r="C84">
         <v>14</v>
@@ -7657,7 +7657,7 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.00228222918364993</v>
+        <v>0.002316240425551633</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -7707,7 +7707,7 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.00228222918364993</v>
+        <v>0.002316240425551633</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -7757,7 +7757,7 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.00228222918364993</v>
+        <v>0.002316240425551633</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -7807,7 +7807,7 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.00228222918364993</v>
+        <v>0.002316240425551633</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -7857,7 +7857,7 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.00228222918364993</v>
+        <v>0.002316240425551633</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -7907,7 +7907,7 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.00228222918364993</v>
+        <v>0.002316240425551633</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -7957,7 +7957,7 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.00228222918364993</v>
+        <v>0.002316240425551633</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -7978,7 +7978,7 @@
         <v>8</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K91">
         <v>0.001462225263559421</v>
@@ -8007,7 +8007,7 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.00228222918364993</v>
+        <v>0.002316240425551633</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -8028,7 +8028,7 @@
         <v>6</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K92">
         <v>0.001435143589771743</v>
@@ -8057,7 +8057,7 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.00228222918364993</v>
+        <v>0.002316240425551633</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -8107,7 +8107,7 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.00228222918364993</v>
+        <v>0.002316240425551633</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -8157,7 +8157,7 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.00228222918364993</v>
+        <v>0.002316240425551633</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -8207,7 +8207,7 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.00228222918364993</v>
+        <v>0.002316240425551633</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -8257,7 +8257,7 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.00228222918364993</v>
+        <v>0.002316240425551633</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -8307,7 +8307,7 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.00228222918364993</v>
+        <v>0.002316240425551633</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -8357,7 +8357,7 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.00228222918364993</v>
+        <v>0.002316240425551633</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -8407,7 +8407,7 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.00228222918364993</v>
+        <v>0.002316240425551633</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -8457,7 +8457,7 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.00228222918364993</v>
+        <v>0.002316240425551633</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -8507,7 +8507,7 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.00228222918364993</v>
+        <v>0.002316240425551633</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -8557,7 +8557,7 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.00228222918364993</v>
+        <v>0.002316240425551633</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -8607,7 +8607,7 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.00228222918364993</v>
+        <v>0.002316240425551633</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -8657,7 +8657,7 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.00228222918364993</v>
+        <v>0.002316240425551633</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -8707,7 +8707,7 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.00228222918364993</v>
+        <v>0.002316240425551633</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -8757,7 +8757,7 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.00228222918364993</v>
+        <v>0.002316240425551633</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -8807,7 +8807,7 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.00228222918364993</v>
+        <v>0.002316240425551633</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -8857,7 +8857,7 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.00228222918364993</v>
+        <v>0.002316240425551633</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -8878,7 +8878,7 @@
         <v>17</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K109">
         <v>0.001289500879618202</v>
@@ -8907,7 +8907,7 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.00228222918364993</v>
+        <v>0.002316240425551633</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -8957,7 +8957,7 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.00228222918364993</v>
+        <v>0.002316240425551633</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -9007,7 +9007,7 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.00228222918364993</v>
+        <v>0.002316240425551633</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -9057,7 +9057,7 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.00228222918364993</v>
+        <v>0.002316240425551633</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -9107,7 +9107,7 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.00228222918364993</v>
+        <v>0.002316240425551633</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -9157,7 +9157,7 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.00228222918364993</v>
+        <v>0.002316240425551633</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -9207,7 +9207,7 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.00228222918364993</v>
+        <v>0.002316240425551633</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -9257,7 +9257,7 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.00228222918364993</v>
+        <v>0.002316240425551633</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -9307,7 +9307,7 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.00228222918364993</v>
+        <v>0.002316240425551633</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -9357,7 +9357,7 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.00228222918364993</v>
+        <v>0.002316240425551633</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -9407,7 +9407,7 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.00228222918364993</v>
+        <v>0.002316240425551633</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -9457,7 +9457,7 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.00228222918364993</v>
+        <v>0.002316240425551633</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -9507,7 +9507,7 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.00228222918364993</v>
+        <v>0.002316240425551633</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -9557,7 +9557,7 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.00228222918364993</v>
+        <v>0.002316240425551633</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -9607,7 +9607,7 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.00228222918364993</v>
+        <v>0.002316240425551633</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -9657,7 +9657,7 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.00228222918364993</v>
+        <v>0.002316240425551633</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -9707,7 +9707,7 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.00228222918364993</v>
+        <v>0.002316240425551633</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -9757,7 +9757,7 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.00228222918364993</v>
+        <v>0.002316240425551633</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -9807,7 +9807,7 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.00228222918364993</v>
+        <v>0.002316240425551633</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -9857,7 +9857,7 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.00228222918364993</v>
+        <v>0.002316240425551633</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -9907,7 +9907,7 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.00228222918364993</v>
+        <v>0.002316240425551633</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -9957,7 +9957,7 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.00228222918364993</v>
+        <v>0.002316240425551633</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -10007,7 +10007,7 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.00228222918364993</v>
+        <v>0.002316240425551633</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -10057,7 +10057,7 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.00228222918364993</v>
+        <v>0.002316240425551633</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -10107,7 +10107,7 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.00228222918364993</v>
+        <v>0.002316240425551633</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -10157,7 +10157,7 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.00228222918364993</v>
+        <v>0.002316240425551633</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -10207,7 +10207,7 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.00228222918364993</v>
+        <v>0.002316240425551633</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -10257,7 +10257,7 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.00228222918364993</v>
+        <v>0.002316240425551633</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -10307,7 +10307,7 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.00228222918364993</v>
+        <v>0.002316240425551633</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -10357,7 +10357,7 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.00228222918364993</v>
+        <v>0.002316240425551633</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -10378,7 +10378,7 @@
         <v>11</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K139">
         <v>0.001222593141267616</v>
@@ -10407,7 +10407,7 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.00228222918364993</v>
+        <v>0.002316240425551633</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -10428,7 +10428,7 @@
         <v>11</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K140">
         <v>0.001145589089812359</v>
@@ -10457,7 +10457,7 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.00228222918364993</v>
+        <v>0.002316240425551633</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -10478,7 +10478,7 @@
         <v>9</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K141">
         <v>0.001145589089812359</v>
@@ -10507,7 +10507,7 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.00228222918364993</v>
+        <v>0.002316240425551633</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -10557,7 +10557,7 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.00228222918364993</v>
+        <v>0.002316240425551633</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -10607,7 +10607,7 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.00228222918364993</v>
+        <v>0.002316240425551633</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -10657,7 +10657,7 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.00228222918364993</v>
+        <v>0.002316240425551633</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -10707,7 +10707,7 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.00228222918364993</v>
+        <v>0.002316240425551633</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -10757,7 +10757,7 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.002268983572132934</v>
+        <v>0.002302797419443126</v>
       </c>
       <c r="C147">
         <v>12</v>
@@ -10807,25 +10807,25 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.002047235501393351</v>
+        <v>0.001833136367603652</v>
       </c>
       <c r="C148">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D148">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="E148">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F148">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G148" t="b">
         <v>1</v>
       </c>
       <c r="H148">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>425</v>
@@ -10857,25 +10857,25 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.001973225503912164</v>
+        <v>0.001778441419294625</v>
       </c>
       <c r="C149">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D149">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="E149">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F149">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G149" t="b">
         <v>1</v>
       </c>
       <c r="H149">
-        <v>79</v>
+        <v>756</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>426</v>
@@ -10907,13 +10907,13 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.001806218935479771</v>
+        <v>0.001744574740391842</v>
       </c>
       <c r="C150">
         <v>4</v>
       </c>
       <c r="D150">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="E150">
         <v>0.97</v>
@@ -10925,7 +10925,7 @@
         <v>1</v>
       </c>
       <c r="H150">
-        <v>158</v>
+        <v>38</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>427</v>
@@ -10957,25 +10957,25 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.001752327117578631</v>
+        <v>0.001736494349378672</v>
       </c>
       <c r="C151">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D151">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="E151">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="F151">
-        <v>0.02000000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G151" t="b">
         <v>1</v>
       </c>
       <c r="H151">
-        <v>756</v>
+        <v>220</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>428</v>
@@ -11007,25 +11007,25 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.001718957730664998</v>
+        <v>0.001685560213612535</v>
       </c>
       <c r="C152">
         <v>4</v>
       </c>
       <c r="D152">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="E152">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F152">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G152" t="b">
         <v>1</v>
       </c>
       <c r="H152">
-        <v>38</v>
+        <v>788</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>429</v>
@@ -11057,25 +11057,25 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.001710995990604629</v>
+        <v>0.001595492041457253</v>
       </c>
       <c r="C153">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D153">
-        <v>163</v>
+        <v>104</v>
       </c>
       <c r="E153">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="F153">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G153" t="b">
         <v>1</v>
       </c>
       <c r="H153">
-        <v>220</v>
+        <v>314</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>430</v>
@@ -11107,25 +11107,25 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.001660809762177249</v>
+        <v>0.001582721847207424</v>
       </c>
       <c r="C154">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D154">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="E154">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F154">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G154" t="b">
         <v>1</v>
       </c>
       <c r="H154">
-        <v>788</v>
+        <v>18</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>431</v>
@@ -11157,13 +11157,13 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.001572064134243639</v>
+        <v>0.001535762500867505</v>
       </c>
       <c r="C155">
         <v>3</v>
       </c>
       <c r="D155">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E155">
         <v>0.97</v>
@@ -11175,7 +11175,7 @@
         <v>1</v>
       </c>
       <c r="H155">
-        <v>314</v>
+        <v>17</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>432</v>
@@ -11207,25 +11207,25 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.001559481455141621</v>
+        <v>0.001444996624595313</v>
       </c>
       <c r="C156">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D156">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="E156">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F156">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G156" t="b">
         <v>1</v>
       </c>
       <c r="H156">
-        <v>18</v>
+        <v>784</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>433</v>
@@ -11257,25 +11257,25 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.00151321165107473</v>
+        <v>0.001404056182657639</v>
       </c>
       <c r="C157">
         <v>3</v>
       </c>
       <c r="D157">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="E157">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F157">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G157" t="b">
         <v>1</v>
       </c>
       <c r="H157">
-        <v>17</v>
+        <v>1083</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>434</v>
@@ -11307,25 +11307,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.001423778563981182</v>
+        <v>0.001330071512589268</v>
       </c>
       <c r="C158">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D158">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E158">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="F158">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>784</v>
+        <v>31</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>435</v>
@@ -11357,25 +11357,25 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.001383439283848191</v>
+        <v>0.00131369960821664</v>
       </c>
       <c r="C159">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D159">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="E159">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="F159">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G159" t="b">
         <v>1</v>
       </c>
       <c r="H159">
-        <v>1083</v>
+        <v>22</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>436</v>
@@ -11407,25 +11407,25 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.00131054099086009</v>
+        <v>0.00130784481066247</v>
       </c>
       <c r="C160">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D160">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E160">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F160">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G160" t="b">
         <v>1</v>
       </c>
       <c r="H160">
-        <v>31</v>
+        <v>346</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>437</v>
@@ -11457,25 +11457,25 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.001294409488474175</v>
+        <v>0.001269228317327098</v>
       </c>
       <c r="C161">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D161">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="E161">
-        <v>0.99</v>
+        <v>0.92</v>
       </c>
       <c r="F161">
-        <v>0.01000000000000001</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G161" t="b">
         <v>1</v>
       </c>
       <c r="H161">
-        <v>22</v>
+        <v>576</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>438</v>
@@ -11507,13 +11507,13 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.001288640661674036</v>
+        <v>0.001267982950607623</v>
       </c>
       <c r="C162">
         <v>2</v>
       </c>
       <c r="D162">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E162">
         <v>0.97</v>
@@ -11525,7 +11525,7 @@
         <v>1</v>
       </c>
       <c r="H162">
-        <v>346</v>
+        <v>17</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>439</v>
@@ -11557,25 +11557,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.001250591205716018</v>
+        <v>0.001233983662742016</v>
       </c>
       <c r="C163">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D163">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E163">
-        <v>0.92</v>
+        <v>0.99</v>
       </c>
       <c r="F163">
-        <v>0.07999999999999996</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
       </c>
       <c r="H163">
-        <v>576</v>
+        <v>59</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>440</v>
@@ -11607,25 +11607,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.001249364125728906</v>
+        <v>0.00121491336930117</v>
       </c>
       <c r="C164">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D164">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E164">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F164">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
       </c>
       <c r="H164">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>441</v>
@@ -11657,25 +11657,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.001215864077057696</v>
+        <v>0.001156864035371016</v>
       </c>
       <c r="C165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D165">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="E165">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="F165">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
       </c>
       <c r="H165">
-        <v>59</v>
+        <v>514</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>442</v>
@@ -11707,25 +11707,25 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.001197073808244777</v>
+        <v>0.001135463267032961</v>
       </c>
       <c r="C166">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D166">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E166">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="F166">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>35</v>
+        <v>293</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>443</v>
@@ -11757,25 +11757,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.001139876859894613</v>
+        <v>0.0011165517076343</v>
       </c>
       <c r="C167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D167">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E167">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="F167">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G167" t="b">
         <v>1</v>
       </c>
       <c r="H167">
-        <v>514</v>
+        <v>427</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>444</v>
@@ -11807,25 +11807,25 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.00111879033644271</v>
+        <v>0.001088299849492379</v>
       </c>
       <c r="C168">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D168">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E168">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F168">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
       </c>
       <c r="H168">
-        <v>293</v>
+        <v>40</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>445</v>
@@ -11857,13 +11857,13 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.00110015647085094</v>
+        <v>0.0010019228049534</v>
       </c>
       <c r="C169">
         <v>1</v>
       </c>
       <c r="D169">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E169">
         <v>0.98</v>
@@ -11875,7 +11875,7 @@
         <v>1</v>
       </c>
       <c r="H169">
-        <v>427</v>
+        <v>3</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>446</v>
@@ -11907,25 +11907,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.00107231945771856</v>
+        <v>0.0009842383661648928</v>
       </c>
       <c r="C170">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D170">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E170">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="F170">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>40</v>
+        <v>118</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>447</v>
@@ -11957,25 +11957,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.0009872107575725729</v>
+        <v>0.000972790811468388</v>
       </c>
       <c r="C171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D171">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E171">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="F171">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
       </c>
       <c r="H171">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>448</v>
@@ -12007,25 +12007,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.0009697859937810552</v>
+        <v>0.0009655606078533495</v>
       </c>
       <c r="C172">
         <v>1</v>
       </c>
       <c r="D172">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E172">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F172">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>449</v>
@@ -12057,25 +12057,25 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.000958506532840134</v>
+        <v>0.0009426967677910239</v>
       </c>
       <c r="C173">
         <v>2</v>
       </c>
       <c r="D173">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E173">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F173">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>32</v>
+        <v>291</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>450</v>
@@ -12107,25 +12107,25 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.000951382496184897</v>
+        <v>0.000927010757394104</v>
       </c>
       <c r="C174">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D174">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E174">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F174">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G174" t="b">
         <v>1</v>
       </c>
       <c r="H174">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>451</v>
@@ -12157,25 +12157,25 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.0009288543844807258</v>
+        <v>0.0008659382519563383</v>
       </c>
       <c r="C175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D175">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E175">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F175">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>291</v>
+        <v>133</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>452</v>
@@ -12207,25 +12207,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.0009133987045314557</v>
+        <v>0.0008659382519563383</v>
       </c>
       <c r="C176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D176">
+        <v>30</v>
+      </c>
+      <c r="E176">
+        <v>0.97</v>
+      </c>
+      <c r="F176">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="G176" t="b">
+        <v>1</v>
+      </c>
+      <c r="H176">
         <v>35</v>
-      </c>
-      <c r="E176">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F176">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="G176" t="b">
-        <v>1</v>
-      </c>
-      <c r="H176">
-        <v>124</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>453</v>
@@ -12257,25 +12257,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.0008532229763595874</v>
+        <v>0.0008594470980120711</v>
       </c>
       <c r="C177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D177">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E177">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F177">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>133</v>
+        <v>2</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>454</v>
@@ -12307,25 +12307,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.0008532229763595874</v>
+        <v>0.0008393460813938085</v>
       </c>
       <c r="C178">
         <v>1</v>
       </c>
       <c r="D178">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E178">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F178">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
       </c>
       <c r="H178">
-        <v>35</v>
+        <v>187</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>455</v>
@@ -12357,25 +12357,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.0008468271373077572</v>
+        <v>0.0008252733245765341</v>
       </c>
       <c r="C179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D179">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E179">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F179">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>456</v>
@@ -12407,13 +12407,13 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.0008270212802640932</v>
+        <v>0.0008252733245765341</v>
       </c>
       <c r="C180">
         <v>1</v>
       </c>
       <c r="D180">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E180">
         <v>0.96</v>
@@ -12425,7 +12425,7 @@
         <v>1</v>
       </c>
       <c r="H180">
-        <v>187</v>
+        <v>281</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>457</v>
@@ -12457,25 +12457,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.0008131551651801449</v>
+        <v>0.0008028937759072384</v>
       </c>
       <c r="C181">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D181">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E181">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="F181">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
       </c>
       <c r="H181">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>458</v>
@@ -12507,25 +12507,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.0008131551651801449</v>
+        <v>0.0007827343383638351</v>
       </c>
       <c r="C182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D182">
         <v>27</v>
       </c>
       <c r="E182">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="F182">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
       </c>
       <c r="H182">
-        <v>281</v>
+        <v>104</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>459</v>
@@ -12557,13 +12557,13 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.0007911042336246193</v>
+        <v>0.0007827343383638351</v>
       </c>
       <c r="C183">
         <v>2</v>
       </c>
       <c r="D183">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E183">
         <v>0.93</v>
@@ -12575,7 +12575,7 @@
         <v>1</v>
       </c>
       <c r="H183">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>460</v>
@@ -12607,25 +12607,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.0007712408134977705</v>
+        <v>0.0007618494875394877</v>
       </c>
       <c r="C184">
         <v>2</v>
       </c>
       <c r="D184">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E184">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F184">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G184" t="b">
         <v>1</v>
       </c>
       <c r="H184">
-        <v>104</v>
+        <v>211</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>461</v>
@@ -12657,25 +12657,25 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.0007712408134977705</v>
+        <v>0.0007401902762035302</v>
       </c>
       <c r="C185">
         <v>2</v>
       </c>
       <c r="D185">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E185">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F185">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
       </c>
       <c r="H185">
-        <v>106</v>
+        <v>520</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>462</v>
@@ -12707,25 +12707,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.0007506626319231401</v>
+        <v>0.0006878669794652614</v>
       </c>
       <c r="C186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D186">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E186">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="F186">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>211</v>
+        <v>82</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>463</v>
@@ -12757,25 +12757,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.000729321460402057</v>
+        <v>0.0006665872771076731</v>
       </c>
       <c r="C187">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D187">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E187">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F187">
-        <v>0.07999999999999996</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>520</v>
+        <v>116</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>464</v>
@@ -12807,25 +12807,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.0006777664691828649</v>
+        <v>0.0006665872771076731</v>
       </c>
       <c r="C188">
         <v>1</v>
       </c>
       <c r="D188">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E188">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F188">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G188" t="b">
         <v>1</v>
       </c>
       <c r="H188">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>465</v>
@@ -12857,13 +12857,13 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.0006567992340011778</v>
+        <v>0.0006440813878320492</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E189">
         <v>0.9399999999999999</v>
@@ -12875,7 +12875,7 @@
         <v>1</v>
       </c>
       <c r="H189">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>466</v>
@@ -12907,13 +12907,13 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.0006567992340011778</v>
+        <v>0.0006440813878320492</v>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
       <c r="D190">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E190">
         <v>0.9399999999999999</v>
@@ -12925,7 +12925,7 @@
         <v>1</v>
       </c>
       <c r="H190">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>467</v>
@@ -12957,7 +12957,7 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.0006346238170011959</v>
+        <v>0.0006440813878320492</v>
       </c>
       <c r="C191">
         <v>1</v>
@@ -12975,7 +12975,7 @@
         <v>1</v>
       </c>
       <c r="H191">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>468</v>
@@ -13007,7 +13007,7 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.0006346238170011959</v>
+        <v>0.0006440813878320492</v>
       </c>
       <c r="C192">
         <v>1</v>
@@ -13025,7 +13025,7 @@
         <v>1</v>
       </c>
       <c r="H192">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>469</v>
@@ -13057,13 +13057,13 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.0006346238170011959</v>
+        <v>0.0006202137878178498</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
       <c r="D193">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E193">
         <v>0.9399999999999999</v>
@@ -13075,7 +13075,7 @@
         <v>1</v>
       </c>
       <c r="H193">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>470</v>
@@ -13107,13 +13107,13 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.0006346238170011959</v>
+        <v>0.0006202137878178498</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E194">
         <v>0.9399999999999999</v>
@@ -13125,7 +13125,7 @@
         <v>1</v>
       </c>
       <c r="H194">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>471</v>
@@ -13157,28 +13157,28 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.0006111066843688543</v>
+        <v>0.0006181884390645646</v>
       </c>
       <c r="C195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D195">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E195">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F195">
-        <v>0.06000000000000005</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="J195" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K195">
         <v>0.001071435161646665</v>
@@ -13207,28 +13207,28 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.0006111066843688543</v>
+        <v>0.0005948260634171141</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
       <c r="D196">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E196">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F196">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="J196" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K196">
         <v>0.001049691135043128</v>
@@ -13257,28 +13257,28 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.0006091110754584729</v>
+        <v>0.0005948260634171141</v>
       </c>
       <c r="C197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D197">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E197">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="F197">
-        <v>0.09999999999999998</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c r="J197" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K197">
         <v>0.001046911096331771</v>
@@ -13307,7 +13307,7 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.0005860917485726182</v>
+        <v>0.0005948260634171141</v>
       </c>
       <c r="C198">
         <v>1</v>
@@ -13325,10 +13325,10 @@
         <v>1</v>
       </c>
       <c r="H198">
-        <v>58</v>
+        <v>449</v>
       </c>
       <c r="J198" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K198">
         <v>0.001033778336340764</v>
@@ -13357,7 +13357,7 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.0005860917485726182</v>
+        <v>0.0005948260634171141</v>
       </c>
       <c r="C199">
         <v>1</v>
@@ -13375,10 +13375,10 @@
         <v>1</v>
       </c>
       <c r="H199">
-        <v>63</v>
+        <v>132</v>
       </c>
       <c r="J199" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K199">
         <v>0.001033778336340764</v>
@@ -13407,28 +13407,28 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.0005860917485726182</v>
+        <v>0.0005905346915391297</v>
       </c>
       <c r="C200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D200">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E200">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="F200">
-        <v>0.06999999999999995</v>
+        <v>0.11</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>449</v>
+        <v>166</v>
       </c>
       <c r="J200" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K200">
         <v>0.001013908252053895</v>
@@ -13457,28 +13457,28 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.0005860917485726182</v>
+        <v>0.0005905346915391297</v>
       </c>
       <c r="C201">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D201">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E201">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="F201">
-        <v>0.06999999999999995</v>
+        <v>0.11</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
       </c>
       <c r="H201">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="J201" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K201">
         <v>0.00100574460266438</v>
@@ -13507,25 +13507,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.0005818633903979705</v>
+        <v>0.0005387089388826684</v>
       </c>
       <c r="C202">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D202">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E202">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="F202">
-        <v>0.11</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>166</v>
+        <v>29</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>472</v>
@@ -13557,25 +13557,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.0005818633903979705</v>
+        <v>0.0005387089388826684</v>
       </c>
       <c r="C203">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D203">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E203">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="F203">
-        <v>0.11</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>9</v>
+        <v>151</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>473</v>
@@ -13607,7 +13607,7 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.0005307986374161941</v>
+        <v>0.0005387089388826684</v>
       </c>
       <c r="C204">
         <v>1</v>
@@ -13625,7 +13625,7 @@
         <v>1</v>
       </c>
       <c r="H204">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>474</v>
@@ -13657,7 +13657,7 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.0005307986374161941</v>
+        <v>0.0005387089388826684</v>
       </c>
       <c r="C205">
         <v>1</v>
@@ -13675,7 +13675,7 @@
         <v>1</v>
       </c>
       <c r="H205">
-        <v>151</v>
+        <v>106</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>475</v>
@@ -13707,25 +13707,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.0005307986374161941</v>
+        <v>0.000531234211929727</v>
       </c>
       <c r="C206">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D206">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E206">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="F206">
-        <v>0.07999999999999996</v>
+        <v>0.12</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>59</v>
+        <v>121</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>476</v>
@@ -13757,25 +13757,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.0005307986374161941</v>
+        <v>0.0005243159191651324</v>
       </c>
       <c r="C207">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D207">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="E207">
-        <v>0.92</v>
+        <v>0.79</v>
       </c>
       <c r="F207">
-        <v>0.07999999999999996</v>
+        <v>0.21</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>106</v>
+        <v>925</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>477</v>
@@ -13807,25 +13807,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.0005234336679580884</v>
+        <v>0.0005074925868097477</v>
       </c>
       <c r="C208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D208">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E208">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="F208">
-        <v>0.12</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>478</v>
@@ -13857,25 +13857,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.0005166169621126096</v>
+        <v>0.0004993544062479028</v>
       </c>
       <c r="C209">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D209">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="E209">
-        <v>0.79</v>
+        <v>0.88</v>
       </c>
       <c r="F209">
-        <v>0.21</v>
+        <v>0.12</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>925</v>
+        <v>18</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>479</v>
@@ -13907,25 +13907,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.0005000406604281432</v>
+        <v>0.0004737617823145265</v>
       </c>
       <c r="C210">
         <v>1</v>
       </c>
       <c r="D210">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E210">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F210">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>480</v>
@@ -13957,25 +13957,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.0004920219793900417</v>
+        <v>0.0004737617823145265</v>
       </c>
       <c r="C211">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D211">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E211">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
       <c r="F211">
-        <v>0.12</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>481</v>
@@ -14007,7 +14007,7 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.0004668051527676419</v>
+        <v>0.0004737617823145265</v>
       </c>
       <c r="C212">
         <v>1</v>
@@ -14025,7 +14025,7 @@
         <v>1</v>
       </c>
       <c r="H212">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>482</v>
@@ -14057,7 +14057,7 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.0004668051527676419</v>
+        <v>0.0004737617823145265</v>
       </c>
       <c r="C213">
         <v>1</v>
@@ -14075,7 +14075,7 @@
         <v>1</v>
       </c>
       <c r="H213">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>483</v>
@@ -14107,25 +14107,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.0004668051527676419</v>
+        <v>0.0004658115161222601</v>
       </c>
       <c r="C214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D214">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E214">
-        <v>0.91</v>
+        <v>0.87</v>
       </c>
       <c r="F214">
-        <v>0.08999999999999997</v>
+        <v>0.13</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>484</v>
@@ -14157,25 +14157,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.0004668051527676419</v>
+        <v>0.0004658115161222601</v>
       </c>
       <c r="C215">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D215">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E215">
-        <v>0.91</v>
+        <v>0.87</v>
       </c>
       <c r="F215">
-        <v>0.08999999999999997</v>
+        <v>0.13</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>485</v>
@@ -14207,7 +14207,7 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.0004589716267996049</v>
+        <v>0.0004658115161222601</v>
       </c>
       <c r="C216">
         <v>2</v>
@@ -14225,7 +14225,7 @@
         <v>1</v>
       </c>
       <c r="H216">
-        <v>12</v>
+        <v>212</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>486</v>
@@ -14257,25 +14257,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.0004589716267996049</v>
+        <v>0.0004371252373136804</v>
       </c>
       <c r="C217">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D217">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E217">
-        <v>0.87</v>
+        <v>0.9</v>
       </c>
       <c r="F217">
-        <v>0.13</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>487</v>
@@ -14307,25 +14307,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.0004589716267996049</v>
+        <v>0.0004371252373136804</v>
       </c>
       <c r="C218">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D218">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E218">
-        <v>0.87</v>
+        <v>0.9</v>
       </c>
       <c r="F218">
-        <v>0.13</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>212</v>
+        <v>53</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>488</v>
@@ -14357,25 +14357,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.000430706571952517</v>
+        <v>0.0003971017992690274</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E219">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F219">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>127</v>
+        <v>54</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>489</v>
@@ -14407,25 +14407,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.000430706571952517</v>
+        <v>0.0003971017992690274</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
       <c r="D220">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E220">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F220">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
       </c>
       <c r="H220">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>490</v>
@@ -14457,25 +14457,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.0003912708305986124</v>
+        <v>0.0003530968868732741</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E221">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="F221">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>491</v>
@@ -14507,25 +14507,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.0003912708305986124</v>
+        <v>0.0003530968868732741</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
       <c r="D222">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E222">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="F222">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>492</v>
@@ -14557,7 +14557,7 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.0003479120781195261</v>
+        <v>0.0003530968868732741</v>
       </c>
       <c r="C223">
         <v>1</v>
@@ -14575,7 +14575,7 @@
         <v>1</v>
       </c>
       <c r="H223">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>493</v>
@@ -14607,7 +14607,7 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.0003479120781195261</v>
+        <v>0.0003530968868732741</v>
       </c>
       <c r="C224">
         <v>1</v>
@@ -14625,7 +14625,7 @@
         <v>1</v>
       </c>
       <c r="H224">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>494</v>
@@ -14657,25 +14657,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.0003479120781195261</v>
+        <v>0.0003118714558439206</v>
       </c>
       <c r="C225">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D225">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E225">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="F225">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>495</v>
@@ -14707,25 +14707,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.0003479120781195261</v>
+        <v>0.0003043785828552176</v>
       </c>
       <c r="C226">
         <v>1</v>
       </c>
       <c r="D226">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E226">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F226">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>496</v>
@@ -14757,25 +14757,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.0003072919936214625</v>
+        <v>0.0003043785828552176</v>
       </c>
       <c r="C227">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D227">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E227">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
       <c r="F227">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>497</v>
@@ -14807,7 +14807,7 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.000299909144580596</v>
+        <v>0.0003043785828552176</v>
       </c>
       <c r="C228">
         <v>1</v>
@@ -14825,7 +14825,7 @@
         <v>1</v>
       </c>
       <c r="H228">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>498</v>
@@ -14857,7 +14857,7 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.000299909144580596</v>
+        <v>0.0003043785828552176</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -14875,7 +14875,7 @@
         <v>1</v>
       </c>
       <c r="H229">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>499</v>
@@ -14907,7 +14907,7 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.000299909144580596</v>
+        <v>0.0003043785828552176</v>
       </c>
       <c r="C230">
         <v>1</v>
@@ -14925,7 +14925,7 @@
         <v>1</v>
       </c>
       <c r="H230">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>500</v>
@@ -14957,25 +14957,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.000299909144580596</v>
+        <v>0.000267634955757897</v>
       </c>
       <c r="C231">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D231">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E231">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F231">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>501</v>
@@ -15007,25 +15007,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.000299909144580596</v>
+        <v>0.0002507656265486248</v>
       </c>
       <c r="C232">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D232">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E232">
-        <v>0.86</v>
+        <v>0.77</v>
       </c>
       <c r="F232">
-        <v>0.14</v>
+        <v>0.23</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>117</v>
+        <v>18</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>502</v>
@@ -15057,25 +15057,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.000263705054042506</v>
+        <v>0.0002500717702180603</v>
       </c>
       <c r="C233">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D233">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E233">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F233">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>503</v>
@@ -15107,25 +15107,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.0002470834309133656</v>
+        <v>0.0002208806438626703</v>
       </c>
       <c r="C234">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D234">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E234">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="F234">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>504</v>
@@ -15157,25 +15157,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.0002463997630395965</v>
+        <v>0.0002103357441309318</v>
       </c>
       <c r="C235">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D235">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E235">
-        <v>0.83</v>
+        <v>0.25</v>
       </c>
       <c r="F235">
-        <v>0.17</v>
+        <v>0.75</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>505</v>
@@ -15207,25 +15207,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.0002176372737328065</v>
+        <v>0.0001892464920989706</v>
       </c>
       <c r="C236">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D236">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E236">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="F236">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="G236" t="b">
         <v>1</v>
       </c>
       <c r="H236">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>506</v>
@@ -15257,25 +15257,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.0002072472133397002</v>
+        <v>0.0001892464920989706</v>
       </c>
       <c r="C237">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D237">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E237">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="F237">
-        <v>0.75</v>
+        <v>0.2</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>507</v>
@@ -15307,7 +15307,7 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.000186467631946621</v>
+        <v>0.0001892464920989706</v>
       </c>
       <c r="C238">
         <v>1</v>
@@ -15325,7 +15325,7 @@
         <v>1</v>
       </c>
       <c r="H238">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>508</v>
@@ -15357,7 +15357,7 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.000186467631946621</v>
+        <v>0.0001892464920989706</v>
       </c>
       <c r="C239">
         <v>1</v>
@@ -15375,7 +15375,7 @@
         <v>1</v>
       </c>
       <c r="H239">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>509</v>
@@ -15407,7 +15407,7 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.000186467631946621</v>
+        <v>0.0001892464920989706</v>
       </c>
       <c r="C240">
         <v>1</v>
@@ -15425,7 +15425,7 @@
         <v>1</v>
       </c>
       <c r="H240">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>510</v>
@@ -15457,7 +15457,7 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.000186467631946621</v>
+        <v>0.0001892464920989706</v>
       </c>
       <c r="C241">
         <v>1</v>
@@ -15475,7 +15475,7 @@
         <v>1</v>
       </c>
       <c r="H241">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>511</v>
@@ -15507,7 +15507,7 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.000186467631946621</v>
+        <v>0.0001892464920989706</v>
       </c>
       <c r="C242">
         <v>1</v>
@@ -15525,7 +15525,7 @@
         <v>1</v>
       </c>
       <c r="H242">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>512</v>
@@ -15557,25 +15557,25 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.000186467631946621</v>
+        <v>0.0001717384159297949</v>
       </c>
       <c r="C243">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D243">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E243">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F243">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G243" t="b">
         <v>1</v>
       </c>
       <c r="H243">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>513</v>
@@ -15607,25 +15607,25 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.000186467631946621</v>
+        <v>0.0001214373984941943</v>
       </c>
       <c r="C244">
         <v>1</v>
       </c>
       <c r="D244">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E244">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F244">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G244" t="b">
         <v>1</v>
       </c>
       <c r="H244">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>514</v>
@@ -15657,13 +15657,13 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.0001692166410986642</v>
+        <v>0.0001214373984941943</v>
       </c>
       <c r="C245">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D245">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E245">
         <v>0.75</v>
@@ -15675,7 +15675,7 @@
         <v>1</v>
       </c>
       <c r="H245">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>515</v>
@@ -15707,7 +15707,7 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.0001196542344104762</v>
+        <v>0.0001214373984941943</v>
       </c>
       <c r="C246">
         <v>1</v>
@@ -15725,7 +15725,7 @@
         <v>1</v>
       </c>
       <c r="H246">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>516</v>
@@ -15757,7 +15757,7 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.0001196542344104762</v>
+        <v>0.0001214373984941943</v>
       </c>
       <c r="C247">
         <v>1</v>
@@ -15775,7 +15775,7 @@
         <v>1</v>
       </c>
       <c r="H247">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>517</v>
@@ -15807,7 +15807,7 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.0001196542344104762</v>
+        <v>0.0001214373984941943</v>
       </c>
       <c r="C248">
         <v>1</v>
@@ -15825,7 +15825,7 @@
         <v>1</v>
       </c>
       <c r="H248">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>518</v>
@@ -15857,7 +15857,7 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.0001196542344104762</v>
+        <v>0.0001214373984941943</v>
       </c>
       <c r="C249">
         <v>1</v>
@@ -15875,7 +15875,7 @@
         <v>1</v>
       </c>
       <c r="H249">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>519</v>
@@ -15907,7 +15907,7 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.0001196542344104762</v>
+        <v>0.0001214373984941943</v>
       </c>
       <c r="C250">
         <v>1</v>
@@ -15925,7 +15925,7 @@
         <v>1</v>
       </c>
       <c r="H250">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>520</v>
@@ -15957,7 +15957,7 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.0001196542344104762</v>
+        <v>0.0001214373984941943</v>
       </c>
       <c r="C251">
         <v>1</v>
@@ -15975,7 +15975,7 @@
         <v>1</v>
       </c>
       <c r="H251">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>521</v>
@@ -16007,7 +16007,7 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.0001196542344104762</v>
+        <v>0.0001214373984941943</v>
       </c>
       <c r="C252">
         <v>1</v>
@@ -16025,7 +16025,7 @@
         <v>1</v>
       </c>
       <c r="H252">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>522</v>
@@ -16057,7 +16057,7 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.0001196542344104762</v>
+        <v>0.0001214373984941943</v>
       </c>
       <c r="C253">
         <v>1</v>
@@ -16075,7 +16075,7 @@
         <v>1</v>
       </c>
       <c r="H253">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>523</v>
@@ -16107,7 +16107,7 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.0001196542344104762</v>
+        <v>0.0001214373984941943</v>
       </c>
       <c r="C254">
         <v>1</v>
@@ -16125,7 +16125,7 @@
         <v>1</v>
       </c>
       <c r="H254">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>524</v>
@@ -16157,7 +16157,7 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>0.0001196542344104762</v>
+        <v>0.0001214373984941943</v>
       </c>
       <c r="C255">
         <v>1</v>
@@ -16175,7 +16175,7 @@
         <v>1</v>
       </c>
       <c r="H255">
-        <v>41</v>
+        <v>133</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>525</v>
@@ -16207,7 +16207,7 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.0001196542344104762</v>
+        <v>0.0001214373984941943</v>
       </c>
       <c r="C256">
         <v>1</v>
@@ -16225,7 +16225,7 @@
         <v>1</v>
       </c>
       <c r="H256">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>526</v>
@@ -16257,7 +16257,7 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>0.0001196542344104762</v>
+        <v>0.0001214373984941943</v>
       </c>
       <c r="C257">
         <v>1</v>
@@ -16275,7 +16275,7 @@
         <v>1</v>
       </c>
       <c r="H257">
-        <v>133</v>
+        <v>62</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>527</v>
@@ -16307,7 +16307,7 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>0.0001196542344104762</v>
+        <v>0.0001214373984941943</v>
       </c>
       <c r="C258">
         <v>1</v>
@@ -16325,7 +16325,7 @@
         <v>1</v>
       </c>
       <c r="H258">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>528</v>
@@ -16357,25 +16357,25 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>0.0001196542344104762</v>
+        <v>6.990227872384479E-05</v>
       </c>
       <c r="C259">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D259">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E259">
-        <v>0.75</v>
+        <v>0.33</v>
       </c>
       <c r="F259">
-        <v>0.25</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G259" t="b">
         <v>1</v>
       </c>
       <c r="H259">
-        <v>62</v>
+        <v>233</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>529</v>
@@ -16407,25 +16407,25 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>0.0001196542344104762</v>
+        <v>6.99022787238437E-05</v>
       </c>
       <c r="C260">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D260">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E260">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F260">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G260" t="b">
         <v>1</v>
       </c>
       <c r="H260">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>530</v>
@@ -16457,25 +16457,25 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>6.887584671578124E-05</v>
+        <v>4.9428375306022E-05</v>
       </c>
       <c r="C261">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D261">
         <v>3</v>
       </c>
       <c r="E261">
+        <v>0.67</v>
+      </c>
+      <c r="F261">
         <v>0.33</v>
       </c>
-      <c r="F261">
-        <v>0.6699999999999999</v>
-      </c>
       <c r="G261" t="b">
         <v>1</v>
       </c>
       <c r="H261">
-        <v>233</v>
+        <v>16</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>531</v>
@@ -16507,13 +16507,13 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>6.887584671578017E-05</v>
+        <v>4.9428375306022E-05</v>
       </c>
       <c r="C262">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D262">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E262">
         <v>0.67</v>
@@ -16525,7 +16525,7 @@
         <v>1</v>
       </c>
       <c r="H262">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>532</v>
@@ -16557,7 +16557,7 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>4.870257827269335E-05</v>
+        <v>4.9428375306022E-05</v>
       </c>
       <c r="C263">
         <v>1</v>
@@ -16575,7 +16575,7 @@
         <v>1</v>
       </c>
       <c r="H263">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>533</v>
@@ -16607,7 +16607,7 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>4.870257827269335E-05</v>
+        <v>4.9428375306022E-05</v>
       </c>
       <c r="C264">
         <v>1</v>
@@ -16625,7 +16625,7 @@
         <v>1</v>
       </c>
       <c r="H264">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>534</v>
@@ -16657,7 +16657,7 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>4.870257827269335E-05</v>
+        <v>4.9428375306022E-05</v>
       </c>
       <c r="C265">
         <v>1</v>
@@ -16675,7 +16675,7 @@
         <v>1</v>
       </c>
       <c r="H265">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>535</v>
@@ -16707,7 +16707,7 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>4.870257827269335E-05</v>
+        <v>4.9428375306022E-05</v>
       </c>
       <c r="C266">
         <v>1</v>
@@ -16725,7 +16725,7 @@
         <v>1</v>
       </c>
       <c r="H266">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>536</v>
@@ -16757,7 +16757,7 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>4.870257827269335E-05</v>
+        <v>4.9428375306022E-05</v>
       </c>
       <c r="C267">
         <v>1</v>
@@ -16807,7 +16807,7 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>4.870257827269335E-05</v>
+        <v>4.9428375306022E-05</v>
       </c>
       <c r="C268">
         <v>1</v>
@@ -16825,7 +16825,7 @@
         <v>1</v>
       </c>
       <c r="H268">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>538</v>
@@ -16857,7 +16857,7 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>4.870257827269335E-05</v>
+        <v>4.9428375306022E-05</v>
       </c>
       <c r="C269">
         <v>1</v>
@@ -16875,7 +16875,7 @@
         <v>1</v>
       </c>
       <c r="H269">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>539</v>
@@ -16907,7 +16907,7 @@
         <v>275</v>
       </c>
       <c r="B270">
-        <v>4.870257827269335E-05</v>
+        <v>4.9428375306022E-05</v>
       </c>
       <c r="C270">
         <v>1</v>
@@ -16925,7 +16925,7 @@
         <v>1</v>
       </c>
       <c r="H270">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>540</v>
@@ -16957,7 +16957,7 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>4.870257827269335E-05</v>
+        <v>4.9428375306022E-05</v>
       </c>
       <c r="C271">
         <v>1</v>
@@ -16975,7 +16975,7 @@
         <v>1</v>
       </c>
       <c r="H271">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>541</v>
@@ -17007,7 +17007,7 @@
         <v>277</v>
       </c>
       <c r="B272">
-        <v>4.870257827269335E-05</v>
+        <v>4.9428375306022E-05</v>
       </c>
       <c r="C272">
         <v>1</v>
@@ -17025,7 +17025,7 @@
         <v>1</v>
       </c>
       <c r="H272">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="J272" s="1" t="s">
         <v>542</v>
@@ -17057,7 +17057,7 @@
         <v>278</v>
       </c>
       <c r="B273">
-        <v>4.870257827269335E-05</v>
+        <v>4.9428375306022E-05</v>
       </c>
       <c r="C273">
         <v>1</v>
@@ -17075,7 +17075,7 @@
         <v>1</v>
       </c>
       <c r="H273">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>543</v>
@@ -17107,7 +17107,7 @@
         <v>279</v>
       </c>
       <c r="B274">
-        <v>4.870257827269335E-05</v>
+        <v>4.9428375306022E-05</v>
       </c>
       <c r="C274">
         <v>1</v>
@@ -17125,7 +17125,7 @@
         <v>1</v>
       </c>
       <c r="H274">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="J274" s="1" t="s">
         <v>544</v>
@@ -17157,7 +17157,7 @@
         <v>280</v>
       </c>
       <c r="B275">
-        <v>4.870257827269335E-05</v>
+        <v>4.9428375306022E-05</v>
       </c>
       <c r="C275">
         <v>1</v>
@@ -17175,7 +17175,7 @@
         <v>1</v>
       </c>
       <c r="H275">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="J275" s="1" t="s">
         <v>545</v>
@@ -17207,25 +17207,25 @@
         <v>281</v>
       </c>
       <c r="B276">
-        <v>4.870257827269335E-05</v>
+        <v>2.415479755912071E-05</v>
       </c>
       <c r="C276">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D276">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E276">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="F276">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="G276" t="b">
         <v>1</v>
       </c>
       <c r="H276">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="J276" s="1" t="s">
         <v>546</v>
@@ -17257,25 +17257,25 @@
         <v>282</v>
       </c>
       <c r="B277">
-        <v>4.870257827269335E-05</v>
+        <v>2.415479755912071E-05</v>
       </c>
       <c r="C277">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D277">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E277">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="F277">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="G277" t="b">
         <v>1</v>
       </c>
       <c r="H277">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="J277" s="1" t="s">
         <v>547</v>
@@ -17307,28 +17307,28 @@
         <v>283</v>
       </c>
       <c r="B278">
-        <v>2.380011302214124E-05</v>
+        <v>0</v>
       </c>
       <c r="C278">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D278">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E278">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F278">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G278" t="b">
         <v>1</v>
       </c>
       <c r="H278">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="J278" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K278">
         <v>0.000954859391809217</v>
@@ -17357,28 +17357,28 @@
         <v>284</v>
       </c>
       <c r="B279">
-        <v>2.380011302214124E-05</v>
+        <v>0</v>
       </c>
       <c r="C279">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D279">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E279">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F279">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G279" t="b">
         <v>1</v>
       </c>
       <c r="H279">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="J279" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K279">
         <v>0.0009250595507754471</v>
@@ -17425,7 +17425,7 @@
         <v>1</v>
       </c>
       <c r="H280">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J280" s="1" t="s">
         <v>548</v>
@@ -17475,7 +17475,7 @@
         <v>1</v>
       </c>
       <c r="H281">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="J281" s="1" t="s">
         <v>549</v>
@@ -17525,7 +17525,7 @@
         <v>1</v>
       </c>
       <c r="H282">
-        <v>12</v>
+        <v>291</v>
       </c>
       <c r="J282" s="1" t="s">
         <v>550</v>
@@ -17575,7 +17575,7 @@
         <v>1</v>
       </c>
       <c r="H283">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="J283" s="1" t="s">
         <v>551</v>
@@ -17625,7 +17625,7 @@
         <v>1</v>
       </c>
       <c r="H284">
-        <v>291</v>
+        <v>57</v>
       </c>
       <c r="J284" s="1" t="s">
         <v>552</v>
@@ -17660,10 +17660,10 @@
         <v>0</v>
       </c>
       <c r="C285">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D285">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E285">
         <v>0.5</v>
@@ -17675,7 +17675,7 @@
         <v>1</v>
       </c>
       <c r="H285">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="J285" s="1" t="s">
         <v>553</v>
@@ -17725,7 +17725,7 @@
         <v>1</v>
       </c>
       <c r="H286">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="J286" s="1" t="s">
         <v>554</v>
@@ -17760,10 +17760,10 @@
         <v>0</v>
       </c>
       <c r="C287">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D287">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E287">
         <v>0.5</v>
@@ -17775,7 +17775,7 @@
         <v>1</v>
       </c>
       <c r="H287">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J287" s="1" t="s">
         <v>555</v>
@@ -17825,7 +17825,7 @@
         <v>1</v>
       </c>
       <c r="H288">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="J288" s="1" t="s">
         <v>556</v>
@@ -17875,7 +17875,7 @@
         <v>1</v>
       </c>
       <c r="H289">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="J289" s="1" t="s">
         <v>557</v>
@@ -17925,7 +17925,7 @@
         <v>1</v>
       </c>
       <c r="H290">
-        <v>124</v>
+        <v>17</v>
       </c>
       <c r="J290" s="1" t="s">
         <v>558</v>
@@ -17960,10 +17960,10 @@
         <v>0</v>
       </c>
       <c r="C291">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D291">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E291">
         <v>0.5</v>
@@ -17975,7 +17975,7 @@
         <v>1</v>
       </c>
       <c r="H291">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="J291" s="1" t="s">
         <v>559</v>
@@ -18025,7 +18025,7 @@
         <v>1</v>
       </c>
       <c r="H292">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J292" s="1" t="s">
         <v>560</v>
@@ -18075,7 +18075,7 @@
         <v>1</v>
       </c>
       <c r="H293">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="J293" s="1" t="s">
         <v>561</v>
@@ -18125,7 +18125,7 @@
         <v>1</v>
       </c>
       <c r="H294">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="J294" s="1" t="s">
         <v>562</v>
@@ -18175,7 +18175,7 @@
         <v>1</v>
       </c>
       <c r="H295">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="J295" s="1" t="s">
         <v>563</v>
@@ -18225,7 +18225,7 @@
         <v>1</v>
       </c>
       <c r="H296">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J296" s="1" t="s">
         <v>564</v>
@@ -18260,10 +18260,10 @@
         <v>0</v>
       </c>
       <c r="C297">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D297">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E297">
         <v>0.5</v>
@@ -18275,7 +18275,7 @@
         <v>1</v>
       </c>
       <c r="H297">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="J297" s="1" t="s">
         <v>565</v>
@@ -18325,7 +18325,7 @@
         <v>1</v>
       </c>
       <c r="H298">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="J298" s="1" t="s">
         <v>566</v>
@@ -18375,7 +18375,7 @@
         <v>1</v>
       </c>
       <c r="H299">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="J299" s="1" t="s">
         <v>567</v>
@@ -18403,30 +18403,6 @@
       </c>
     </row>
     <row r="300" spans="1:17">
-      <c r="A300" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B300">
-        <v>0</v>
-      </c>
-      <c r="C300">
-        <v>1</v>
-      </c>
-      <c r="D300">
-        <v>2</v>
-      </c>
-      <c r="E300">
-        <v>0.5</v>
-      </c>
-      <c r="F300">
-        <v>0.5</v>
-      </c>
-      <c r="G300" t="b">
-        <v>1</v>
-      </c>
-      <c r="H300">
-        <v>57</v>
-      </c>
       <c r="J300" s="1" t="s">
         <v>568</v>
       </c>
@@ -18453,30 +18429,6 @@
       </c>
     </row>
     <row r="301" spans="1:17">
-      <c r="A301" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B301">
-        <v>0</v>
-      </c>
-      <c r="C301">
-        <v>1</v>
-      </c>
-      <c r="D301">
-        <v>2</v>
-      </c>
-      <c r="E301">
-        <v>0.5</v>
-      </c>
-      <c r="F301">
-        <v>0.5</v>
-      </c>
-      <c r="G301" t="b">
-        <v>1</v>
-      </c>
-      <c r="H301">
-        <v>13</v>
-      </c>
       <c r="J301" s="1" t="s">
         <v>569</v>
       </c>
@@ -21624,7 +21576,7 @@
     </row>
     <row r="422" spans="10:17">
       <c r="J422" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K422">
         <v>0.0008039815748783721</v>
@@ -21650,7 +21602,7 @@
     </row>
     <row r="423" spans="10:17">
       <c r="J423" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K423">
         <v>0.0007169414005283085</v>
@@ -21676,7 +21628,7 @@
     </row>
     <row r="424" spans="10:17">
       <c r="J424" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K424">
         <v>0.0007111688286857541</v>
@@ -21702,7 +21654,7 @@
     </row>
     <row r="425" spans="10:17">
       <c r="J425" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K425">
         <v>0.0006798488050025037</v>
@@ -21728,7 +21680,7 @@
     </row>
     <row r="426" spans="10:17">
       <c r="J426" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K426">
         <v>0.0006798488050025037</v>
@@ -21754,7 +21706,7 @@
     </row>
     <row r="427" spans="10:17">
       <c r="J427" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K427">
         <v>0.0006751875510279599</v>
@@ -21780,7 +21732,7 @@
     </row>
     <row r="428" spans="10:17">
       <c r="J428" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K428">
         <v>0.0006751875510279599</v>
@@ -21806,7 +21758,7 @@
     </row>
     <row r="429" spans="10:17">
       <c r="J429" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K429">
         <v>0.0006483398977108528</v>
@@ -21832,7 +21784,7 @@
     </row>
     <row r="430" spans="10:17">
       <c r="J430" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K430">
         <v>0.0006329125190502231</v>
@@ -21858,7 +21810,7 @@
     </row>
     <row r="431" spans="10:17">
       <c r="J431" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K431">
         <v>0.0006329125190502231</v>
@@ -21884,7 +21836,7 @@
     </row>
     <row r="432" spans="10:17">
       <c r="J432" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K432">
         <v>0.0006329125190502231</v>
@@ -21910,7 +21862,7 @@
     </row>
     <row r="433" spans="10:17">
       <c r="J433" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K433">
         <v>0.0006329125190502231</v>
@@ -21936,7 +21888,7 @@
     </row>
     <row r="434" spans="10:17">
       <c r="J434" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K434">
         <v>0.000616645037839903</v>
@@ -21962,7 +21914,7 @@
     </row>
     <row r="435" spans="10:17">
       <c r="J435" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K435">
         <v>0.0005901059472539384</v>
@@ -21988,7 +21940,7 @@
     </row>
     <row r="436" spans="10:17">
       <c r="J436" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K436">
         <v>0.0005901059472539384</v>
@@ -31140,7 +31092,7 @@
     </row>
     <row r="788" spans="10:17">
       <c r="J788" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K788">
         <v>0.0005467602745398783</v>
@@ -31166,7 +31118,7 @@
     </row>
     <row r="789" spans="10:17">
       <c r="J789" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K789">
         <v>0.0005467602745398783</v>
@@ -31192,7 +31144,7 @@
     </row>
     <row r="790" spans="10:17">
       <c r="J790" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K790">
         <v>0.0005467602745398783</v>
@@ -31218,7 +31170,7 @@
     </row>
     <row r="791" spans="10:17">
       <c r="J791" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K791">
         <v>0.0005467602745398783</v>
@@ -31244,7 +31196,7 @@
     </row>
     <row r="792" spans="10:17">
       <c r="J792" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K792">
         <v>0.0004584455381851366</v>
@@ -31270,7 +31222,7 @@
     </row>
     <row r="793" spans="10:17">
       <c r="J793" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K793">
         <v>0.0004584455381851366</v>
@@ -31296,7 +31248,7 @@
     </row>
     <row r="794" spans="10:17">
       <c r="J794" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K794">
         <v>0.0004584455381851366</v>
@@ -31322,7 +31274,7 @@
     </row>
     <row r="795" spans="10:17">
       <c r="J795" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K795">
         <v>0.0004584455381851366</v>
@@ -31348,7 +31300,7 @@
     </row>
     <row r="796" spans="10:17">
       <c r="J796" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K796">
         <v>0.0004556014305114151</v>
@@ -31374,7 +31326,7 @@
     </row>
     <row r="797" spans="10:17">
       <c r="J797" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K797">
         <v>0.0004229585650448999</v>
@@ -31400,7 +31352,7 @@
     </row>
     <row r="798" spans="10:17">
       <c r="J798" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K798">
         <v>0.0004229585650448999</v>
@@ -31426,7 +31378,7 @@
     </row>
     <row r="799" spans="10:17">
       <c r="J799" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K799">
         <v>0.0004134937891335563</v>
@@ -31452,7 +31404,7 @@
     </row>
     <row r="800" spans="10:17">
       <c r="J800" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K800">
         <v>0.0003680467348888226</v>
@@ -31478,7 +31430,7 @@
     </row>
     <row r="801" spans="10:17">
       <c r="J801" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K801">
         <v>0.0003680467348888226</v>
@@ -31504,7 +31456,7 @@
     </row>
     <row r="802" spans="10:17">
       <c r="J802" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K802">
         <v>0.0003680467348888226</v>
@@ -31530,7 +31482,7 @@
     </row>
     <row r="803" spans="10:17">
       <c r="J803" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K803">
         <v>0.0003680467348888226</v>
@@ -31556,7 +31508,7 @@
     </row>
     <row r="804" spans="10:17">
       <c r="J804" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K804">
         <v>0.0003574041683101008</v>
@@ -31582,7 +31534,7 @@
     </row>
     <row r="805" spans="10:17">
       <c r="J805" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K805">
         <v>0.0003245643771843718</v>
@@ -31608,7 +31560,7 @@
     </row>
     <row r="806" spans="10:17">
       <c r="J806" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K806">
         <v>0.0003221588610329133</v>
@@ -31634,7 +31586,7 @@
     </row>
     <row r="807" spans="10:17">
       <c r="J807" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K807">
         <v>0.0003221588610329133</v>
@@ -31660,7 +31612,7 @@
     </row>
     <row r="808" spans="10:17">
       <c r="J808" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K808">
         <v>0.0002917493149510987</v>
@@ -31686,7 +31638,7 @@
     </row>
     <row r="809" spans="10:17">
       <c r="J809" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K809">
         <v>0.0002917493149510987</v>
@@ -31712,7 +31664,7 @@
     </row>
     <row r="810" spans="10:17">
       <c r="J810" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K810">
         <v>0.0002917493149510987</v>
@@ -31764,7 +31716,7 @@
     </row>
     <row r="812" spans="10:17">
       <c r="J812" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K812">
         <v>0.0002759242010633789</v>
@@ -31790,7 +31742,7 @@
     </row>
     <row r="813" spans="10:17">
       <c r="J813" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K813">
         <v>0.0002759242010633789</v>
@@ -31816,7 +31768,7 @@
     </row>
     <row r="814" spans="10:17">
       <c r="J814" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K814">
         <v>0.0002503538030619796</v>
@@ -31842,7 +31794,7 @@
     </row>
     <row r="815" spans="10:17">
       <c r="J815" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K815">
         <v>0.0002295016720386582</v>
@@ -31868,7 +31820,7 @@
     </row>
     <row r="816" spans="10:17">
       <c r="J816" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K816">
         <v>0.0002295016720386582</v>
@@ -31894,7 +31846,7 @@
     </row>
     <row r="817" spans="10:17">
       <c r="J817" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K817">
         <v>0.0002295016720386582</v>
@@ -31920,7 +31872,7 @@
     </row>
     <row r="818" spans="10:17">
       <c r="J818" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K818">
         <v>0.0002295016720386582</v>
@@ -31946,7 +31898,7 @@
     </row>
     <row r="819" spans="10:17">
       <c r="J819" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K819">
         <v>0.0001831608546194063</v>
@@ -31972,7 +31924,7 @@
     </row>
     <row r="820" spans="10:17">
       <c r="J820" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K820">
         <v>0.0001831608546194063</v>
@@ -31998,7 +31950,7 @@
     </row>
     <row r="821" spans="10:17">
       <c r="J821" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K821">
         <v>0.0001831608546194063</v>
@@ -32024,7 +31976,7 @@
     </row>
     <row r="822" spans="10:17">
       <c r="J822" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K822">
         <v>0.0001831608546194063</v>
@@ -32050,7 +32002,7 @@
     </row>
     <row r="823" spans="10:17">
       <c r="J823" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K823">
         <v>0.0001831608546194063</v>
@@ -32076,7 +32028,7 @@
     </row>
     <row r="824" spans="10:17">
       <c r="J824" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K824">
         <v>0.0001625267420972598</v>
@@ -32102,7 +32054,7 @@
     </row>
     <row r="825" spans="10:17">
       <c r="J825" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K825">
         <v>0.0001373702270172026</v>
@@ -32128,7 +32080,7 @@
     </row>
     <row r="826" spans="10:17">
       <c r="J826" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K826">
         <v>0.0001314969794460166</v>
@@ -32154,7 +32106,7 @@
     </row>
     <row r="827" spans="10:17">
       <c r="J827" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K827">
         <v>0.0001124735294837378</v>
@@ -32180,7 +32132,7 @@
     </row>
     <row r="828" spans="10:17">
       <c r="J828" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K828">
         <v>0.0001015160304048506</v>
@@ -32206,7 +32158,7 @@
     </row>
     <row r="829" spans="10:17">
       <c r="J829" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K829">
         <v>9.298240587182637E-05</v>
@@ -32232,7 +32184,7 @@
     </row>
     <row r="830" spans="10:17">
       <c r="J830" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K830">
         <v>9.298240587182637E-05</v>
@@ -32258,7 +32210,7 @@
     </row>
     <row r="831" spans="10:17">
       <c r="J831" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K831">
         <v>9.298240587182637E-05</v>
@@ -32284,7 +32236,7 @@
     </row>
     <row r="832" spans="10:17">
       <c r="J832" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K832">
         <v>9.298240587182637E-05</v>
@@ -32310,7 +32262,7 @@
     </row>
     <row r="833" spans="10:17">
       <c r="J833" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K833">
         <v>9.298240587182637E-05</v>
@@ -32336,7 +32288,7 @@
     </row>
     <row r="834" spans="10:17">
       <c r="J834" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K834">
         <v>9.298240587182637E-05</v>
@@ -32362,7 +32314,7 @@
     </row>
     <row r="835" spans="10:17">
       <c r="J835" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K835">
         <v>9.298240587182637E-05</v>
@@ -32388,7 +32340,7 @@
     </row>
     <row r="836" spans="10:17">
       <c r="J836" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K836">
         <v>7.307537042293793E-05</v>
@@ -32414,7 +32366,7 @@
     </row>
     <row r="837" spans="10:17">
       <c r="J837" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K837">
         <v>5.167208996377827E-05</v>
@@ -32440,7 +32392,7 @@
     </row>
     <row r="838" spans="10:17">
       <c r="J838" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K838">
         <v>5.167208996377827E-05</v>
@@ -32466,7 +32418,7 @@
     </row>
     <row r="839" spans="10:17">
       <c r="J839" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K839">
         <v>5.167208996377827E-05</v>
@@ -32492,7 +32444,7 @@
     </row>
     <row r="840" spans="10:17">
       <c r="J840" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K840">
         <v>5.167208996377827E-05</v>
@@ -32518,7 +32470,7 @@
     </row>
     <row r="841" spans="10:17">
       <c r="J841" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K841">
         <v>5.167208996377827E-05</v>
@@ -32544,7 +32496,7 @@
     </row>
     <row r="842" spans="10:17">
       <c r="J842" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K842">
         <v>5.167208996377827E-05</v>
@@ -32570,7 +32522,7 @@
     </row>
     <row r="843" spans="10:17">
       <c r="J843" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K843">
         <v>5.167208996377827E-05</v>
@@ -32596,7 +32548,7 @@
     </row>
     <row r="844" spans="10:17">
       <c r="J844" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K844">
         <v>5.167208996377827E-05</v>
@@ -32622,7 +32574,7 @@
     </row>
     <row r="845" spans="10:17">
       <c r="J845" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K845">
         <v>5.167208996377827E-05</v>
@@ -32648,7 +32600,7 @@
     </row>
     <row r="846" spans="10:17">
       <c r="J846" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K846">
         <v>5.167208996377827E-05</v>
@@ -32674,7 +32626,7 @@
     </row>
     <row r="847" spans="10:17">
       <c r="J847" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K847">
         <v>5.167208996377827E-05</v>
@@ -32700,7 +32652,7 @@
     </row>
     <row r="848" spans="10:17">
       <c r="J848" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K848">
         <v>5.167208996377827E-05</v>
@@ -32726,7 +32678,7 @@
     </row>
     <row r="849" spans="10:17">
       <c r="J849" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K849">
         <v>5.167208996377827E-05</v>
@@ -32752,7 +32704,7 @@
     </row>
     <row r="850" spans="10:17">
       <c r="J850" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K850">
         <v>5.167208996377827E-05</v>
@@ -32778,7 +32730,7 @@
     </row>
     <row r="851" spans="10:17">
       <c r="J851" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K851">
         <v>5.167208996377827E-05</v>
@@ -32804,7 +32756,7 @@
     </row>
     <row r="852" spans="10:17">
       <c r="J852" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K852">
         <v>2.983289505017807E-05</v>
@@ -32830,7 +32782,7 @@
     </row>
     <row r="853" spans="10:17">
       <c r="J853" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K853">
         <v>2.428562454878151E-05</v>
@@ -32856,7 +32808,7 @@
     </row>
     <row r="854" spans="10:17">
       <c r="J854" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K854">
         <v>1.717252980379398E-05</v>
@@ -32882,7 +32834,7 @@
     </row>
     <row r="855" spans="10:17">
       <c r="J855" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K855">
         <v>1.717252980379398E-05</v>
@@ -32908,7 +32860,7 @@
     </row>
     <row r="856" spans="10:17">
       <c r="J856" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K856">
         <v>1.717252980379398E-05</v>
@@ -32934,7 +32886,7 @@
     </row>
     <row r="857" spans="10:17">
       <c r="J857" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K857">
         <v>1.717252980379398E-05</v>
@@ -32960,7 +32912,7 @@
     </row>
     <row r="858" spans="10:17">
       <c r="J858" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K858">
         <v>1.717252980379398E-05</v>
@@ -32986,7 +32938,7 @@
     </row>
     <row r="859" spans="10:17">
       <c r="J859" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K859">
         <v>1.717252980379398E-05</v>
@@ -33012,7 +32964,7 @@
     </row>
     <row r="860" spans="10:17">
       <c r="J860" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K860">
         <v>1.717252980379398E-05</v>
@@ -33038,7 +32990,7 @@
     </row>
     <row r="861" spans="10:17">
       <c r="J861" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K861">
         <v>1.717252980379398E-05</v>
@@ -33064,7 +33016,7 @@
     </row>
     <row r="862" spans="10:17">
       <c r="J862" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K862">
         <v>1.717252980379398E-05</v>
@@ -33090,7 +33042,7 @@
     </row>
     <row r="863" spans="10:17">
       <c r="J863" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K863">
         <v>1.717252980379398E-05</v>
@@ -33116,7 +33068,7 @@
     </row>
     <row r="864" spans="10:17">
       <c r="J864" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K864">
         <v>1.717252980379398E-05</v>
@@ -33142,7 +33094,7 @@
     </row>
     <row r="865" spans="10:17">
       <c r="J865" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K865">
         <v>1.717252980379398E-05</v>
@@ -33168,7 +33120,7 @@
     </row>
     <row r="866" spans="10:17">
       <c r="J866" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K866">
         <v>1.717252980379398E-05</v>
@@ -33194,7 +33146,7 @@
     </row>
     <row r="867" spans="10:17">
       <c r="J867" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K867">
         <v>1.717252980379398E-05</v>
@@ -33220,7 +33172,7 @@
     </row>
     <row r="868" spans="10:17">
       <c r="J868" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K868">
         <v>1.717252980379398E-05</v>
@@ -33246,7 +33198,7 @@
     </row>
     <row r="869" spans="10:17">
       <c r="J869" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K869">
         <v>1.214281227439063E-05</v>
@@ -33272,7 +33224,7 @@
     </row>
     <row r="870" spans="10:17">
       <c r="J870" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K870">
         <v>7.267616076312017E-06</v>
@@ -33298,7 +33250,7 @@
     </row>
     <row r="871" spans="10:17">
       <c r="J871" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K871">
         <v>7.267616076312017E-06</v>
@@ -33324,7 +33276,7 @@
     </row>
     <row r="872" spans="10:17">
       <c r="J872" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K872">
         <v>0</v>
@@ -33350,7 +33302,7 @@
     </row>
     <row r="873" spans="10:17">
       <c r="J873" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K873">
         <v>0</v>
@@ -33376,7 +33328,7 @@
     </row>
     <row r="874" spans="10:17">
       <c r="J874" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K874">
         <v>0</v>
@@ -33402,7 +33354,7 @@
     </row>
     <row r="875" spans="10:17">
       <c r="J875" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K875">
         <v>0</v>
@@ -33428,7 +33380,7 @@
     </row>
     <row r="876" spans="10:17">
       <c r="J876" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K876">
         <v>0</v>
@@ -33454,7 +33406,7 @@
     </row>
     <row r="877" spans="10:17">
       <c r="J877" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K877">
         <v>0</v>
@@ -33480,7 +33432,7 @@
     </row>
     <row r="878" spans="10:17">
       <c r="J878" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K878">
         <v>0</v>
@@ -33506,7 +33458,7 @@
     </row>
     <row r="879" spans="10:17">
       <c r="J879" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K879">
         <v>0</v>
@@ -33532,7 +33484,7 @@
     </row>
     <row r="880" spans="10:17">
       <c r="J880" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K880">
         <v>0</v>
@@ -33558,7 +33510,7 @@
     </row>
     <row r="881" spans="10:17">
       <c r="J881" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K881">
         <v>0</v>
@@ -33584,7 +33536,7 @@
     </row>
     <row r="882" spans="10:17">
       <c r="J882" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K882">
         <v>0</v>
@@ -33610,7 +33562,7 @@
     </row>
     <row r="883" spans="10:17">
       <c r="J883" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K883">
         <v>0</v>
@@ -33636,7 +33588,7 @@
     </row>
     <row r="884" spans="10:17">
       <c r="J884" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K884">
         <v>0</v>
@@ -33662,7 +33614,7 @@
     </row>
     <row r="885" spans="10:17">
       <c r="J885" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K885">
         <v>0</v>
@@ -33688,7 +33640,7 @@
     </row>
     <row r="886" spans="10:17">
       <c r="J886" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K886">
         <v>0</v>
@@ -33714,7 +33666,7 @@
     </row>
     <row r="887" spans="10:17">
       <c r="J887" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K887">
         <v>0</v>
@@ -33740,7 +33692,7 @@
     </row>
     <row r="888" spans="10:17">
       <c r="J888" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K888">
         <v>0</v>
@@ -33766,7 +33718,7 @@
     </row>
     <row r="889" spans="10:17">
       <c r="J889" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K889">
         <v>0</v>
@@ -33792,7 +33744,7 @@
     </row>
     <row r="890" spans="10:17">
       <c r="J890" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K890">
         <v>0</v>
@@ -33818,7 +33770,7 @@
     </row>
     <row r="891" spans="10:17">
       <c r="J891" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K891">
         <v>0</v>
@@ -33844,7 +33796,7 @@
     </row>
     <row r="892" spans="10:17">
       <c r="J892" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K892">
         <v>0</v>
@@ -33870,7 +33822,7 @@
     </row>
     <row r="893" spans="10:17">
       <c r="J893" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K893">
         <v>0</v>
